--- a/medicine/Enfance/Disparition_de_Lina/Disparition_de_Lina.xlsx
+++ b/medicine/Enfance/Disparition_de_Lina/Disparition_de_Lina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La disparition de Lina est une affaire judiciaire française qui a pour point de départ la disparition inexpliquée d'une adolescente de quinze ans, Lina Delsarte, survenue le 23 septembre 2023.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lina Delsarte
-La victime prénommée Lina Delsarte est âgée de 15 ans[1]. Elle est blonde et mesure 1,60 m[2]. Lina était en CAP aide à la personne dans un établissement proche de Saint-Blaise-la-Roche. C'est la fille unique de parents séparés[3] en 2011[4].
+          <t>Lina Delsarte</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La victime prénommée Lina Delsarte est âgée de 15 ans. Elle est blonde et mesure 1,60 m. Lina était en CAP aide à la personne dans un établissement proche de Saint-Blaise-la-Roche. C'est la fille unique de parents séparés en 2011.
 </t>
         </is>
       </c>
@@ -544,9 +561,11 @@
           <t>Circonstances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le samedi 23 septembre 2023, Lina effectuait le chemin entre son domicile à Champenay (un hameau de la commune de Plaine) et la gare de Saint-Blaise-la-Roche où elle devait prendre un train. Elle effectuait à pied ce trajet d'environ 3 km[5]. Deux témoins l'ont aperçue entre 11h15 et 11h30 puis son téléphone portable a émis un dernier signal à 11h22. Les vérifications effectuées sur les caméras de surveillance du train semble montrer qu'elle n'y est jamais montée[2]. Elle souhaitait prendre ce train pour retrouver son petit ami à Strasbourg. Ne la voyant pas arriver, c’est lui qui a alerté la mère de la jeune fille. Au moment de sa disparition, Lina portait une robe grise, une veste blanche et des chaussures converses blanches. Selon la procureure de la République de Saverne, Aline Clérot, la victime n'a pas un profil de fugueuse et déclare que la famille est « sans problème particulier »[3]. Aucune activité bancaire n'a été constatée sur son compte depuis sa disparition.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le samedi 23 septembre 2023, Lina effectuait le chemin entre son domicile à Champenay (un hameau de la commune de Plaine) et la gare de Saint-Blaise-la-Roche où elle devait prendre un train. Elle effectuait à pied ce trajet d'environ 3 km. Deux témoins l'ont aperçue entre 11h15 et 11h30 puis son téléphone portable a émis un dernier signal à 11h22. Les vérifications effectuées sur les caméras de surveillance du train semble montrer qu'elle n'y est jamais montée. Elle souhaitait prendre ce train pour retrouver son petit ami à Strasbourg. Ne la voyant pas arriver, c’est lui qui a alerté la mère de la jeune fille. Au moment de sa disparition, Lina portait une robe grise, une veste blanche et des chaussures converses blanches. Selon la procureure de la République de Saverne, Aline Clérot, la victime n'a pas un profil de fugueuse et déclare que la famille est « sans problème particulier ». Aucune activité bancaire n'a été constatée sur son compte depuis sa disparition.
 </t>
         </is>
       </c>
@@ -575,9 +594,11 @@
           <t>Fait divers en parallèle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la mi-janvier 2024, une autre information a été révélée. Le premier petit ami sérieux de Lina, est décédé le 1er octobre 2023, soit huit jours après la disparition de l’adolescente. Le jeune homme de 22 ans s’est tué lors d'une sortie de route, après avoir été flashé à 185 km/h par les gendarmes sur la D500, à hauteur de Bischoffsheim (Bas-Rhin). La relation aurait duré environ un an au cours de l'année 2022 et les deux seraient restés en bons termes par la suite. Les gendarmes ne parlent pas d'un suicide mais bien d'un accident et que sa mort ne serait pas du tout liée à cette enquête, malgré pendant quelques temps des interrogations dûes à la temporalité hasardeuse de ces deux affaires[6],[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la mi-janvier 2024, une autre information a été révélée. Le premier petit ami sérieux de Lina, est décédé le 1er octobre 2023, soit huit jours après la disparition de l’adolescente. Le jeune homme de 22 ans s’est tué lors d'une sortie de route, après avoir été flashé à 185 km/h par les gendarmes sur la D500, à hauteur de Bischoffsheim (Bas-Rhin). La relation aurait duré environ un an au cours de l'année 2022 et les deux seraient restés en bons termes par la suite. Les gendarmes ne parlent pas d'un suicide mais bien d'un accident et que sa mort ne serait pas du tout liée à cette enquête, malgré pendant quelques temps des interrogations dûes à la temporalité hasardeuse de ces deux affaires,.
 </t>
         </is>
       </c>
@@ -608,14 +629,54 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plainte pour viol
-En juin 2022, Lina alors âgée de 13 ans, dépose une plainte pour des faits de « viol en réunion ». Cette plainte est classée sans suite pour infraction « insuffisamment caractérisée ». En janvier 2024, le parquet de Saverne annonce procéder à une « nouvelle étude juridique de la procédure »[8]. En février 2024, une information judiciaire a été ouverte pour « viol commis sur mineure de 15 ans par un majeur avec différence d’âge d’au moins cinq ans » à la suite de la plainte de 2022. Selon la procureure de la République de Strasbourg, cette nouvelle procédure est : « sans lien et distincte de celle actuellement ouverte des chefs d’enlèvement et de séquestration criminelle »[9].
-Disparition
-Les recherches ont essentiellement lieu entre le domicile de la victime, situé à Champenay et la gare de Saint Blaise-la-Roche où elle devait prendre un train[1].
-Un avis de recherche a été lancé par la gendarmerie dès le samedi après midi et une enquête pour « disparition inquiétante » a été ouverte. Une première battue a eu lieu le lundi puis une seconde le lendemain, complétées par des investigations téléphoniques. Des équipes cynophiles ont été engagées sur les lieux potentiels de la disparition. Un hélicoptère et des drones[1] ont également survolé la zone. Deux plans d'eau situés près de Saint-Blaise-la-Roche ont été sondés par sept plongeurs[2],[3].
-Aucune trace pouvant évoquer un accident n'a été constatée sur le parcours de la victime[3]. Deux ratissages impliquant 80 gendarmes ont été réalisés le jeudi 28 septembre[2].
-Dans le cadre normal de l'enquête, le téléphone de son petit ami Tao est analysé par la police notamment pour étudier la dernière vidéo qu'elle aurait envoyée avant sa disparition[10]. Le jeune homme âgé de 19 ans révèle au Nouveau Détective qu'il est victime de menaces et d'accusations depuis la disparition de Lina[11].
-Le 26 mars 2024, six mois après la disparition de l’adolescente, trois personnes, un homme et un couple, ont été placées en garde à vue par les gendarmes de la section de recherches de Strasbourg. En cause, des incohérences entre leur emploi du temps et les déclarations qu’ils ont faites aux enquêteurs, mais ces auditions n'ont rien révélé d’incriminant[12].
+          <t>Plainte pour viol</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En juin 2022, Lina alors âgée de 13 ans, dépose une plainte pour des faits de « viol en réunion ». Cette plainte est classée sans suite pour infraction « insuffisamment caractérisée ». En janvier 2024, le parquet de Saverne annonce procéder à une « nouvelle étude juridique de la procédure ». En février 2024, une information judiciaire a été ouverte pour « viol commis sur mineure de 15 ans par un majeur avec différence d’âge d’au moins cinq ans » à la suite de la plainte de 2022. Selon la procureure de la République de Strasbourg, cette nouvelle procédure est : « sans lien et distincte de celle actuellement ouverte des chefs d’enlèvement et de séquestration criminelle ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Disparition_de_Lina</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Disparition_de_Lina</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Enquêtes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Disparition</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les recherches ont essentiellement lieu entre le domicile de la victime, situé à Champenay et la gare de Saint Blaise-la-Roche où elle devait prendre un train.
+Un avis de recherche a été lancé par la gendarmerie dès le samedi après midi et une enquête pour « disparition inquiétante » a été ouverte. Une première battue a eu lieu le lundi puis une seconde le lendemain, complétées par des investigations téléphoniques. Des équipes cynophiles ont été engagées sur les lieux potentiels de la disparition. Un hélicoptère et des drones ont également survolé la zone. Deux plans d'eau situés près de Saint-Blaise-la-Roche ont été sondés par sept plongeurs,.
+Aucune trace pouvant évoquer un accident n'a été constatée sur le parcours de la victime. Deux ratissages impliquant 80 gendarmes ont été réalisés le jeudi 28 septembre.
+Dans le cadre normal de l'enquête, le téléphone de son petit ami Tao est analysé par la police notamment pour étudier la dernière vidéo qu'elle aurait envoyée avant sa disparition. Le jeune homme âgé de 19 ans révèle au Nouveau Détective qu'il est victime de menaces et d'accusations depuis la disparition de Lina.
+Le 26 mars 2024, six mois après la disparition de l’adolescente, trois personnes, un homme et un couple, ont été placées en garde à vue par les gendarmes de la section de recherches de Strasbourg. En cause, des incohérences entre leur emploi du temps et les déclarations qu’ils ont faites aux enquêteurs, mais ces auditions n'ont rien révélé d’incriminant.
 </t>
         </is>
       </c>
